--- a/IBM - Cognos Analytics 11 Training Topics_Trainers_Final_Comments_on_Number_Of_Hours.xlsx
+++ b/IBM - Cognos Analytics 11 Training Topics_Trainers_Final_Comments_on_Number_Of_Hours.xlsx
@@ -819,6 +819,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -827,18 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1181,25 +1181,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I6" s="28" t="s">
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="40">
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1312,7 +1312,7 @@
       <c r="F10" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="42" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="29">
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="9"/>
       <c r="C11" s="15" t="s">
         <v>35</v>
@@ -1337,7 +1337,7 @@
       <c r="F11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="29">
         <v>2</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="D15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="46" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -1450,15 +1450,15 @@
       <c r="G15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="45">
         <v>13</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="45">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -1475,11 +1475,11 @@
         <v>60</v>
       </c>
       <c r="G16" s="43"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
         <v>18</v>
@@ -1492,11 +1492,11 @@
         <v>60</v>
       </c>
       <c r="G17" s="43"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="40">
         <v>9</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1511,11 +1511,11 @@
       <c r="E18" s="43"/>
       <c r="F18" s="26"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="9"/>
       <c r="C19" s="15" t="s">
         <v>13</v>
@@ -1528,8 +1528,8 @@
         <v>60</v>
       </c>
       <c r="G19" s="43"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1549,8 +1549,8 @@
         <v>60</v>
       </c>
       <c r="G20" s="43"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1570,8 +1570,8 @@
         <v>60</v>
       </c>
       <c r="G21" s="43"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:9" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1591,8 +1591,8 @@
         <v>60</v>
       </c>
       <c r="G22" s="43"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1636,17 +1636,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G15:G22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="I15:I22"/>
     <mergeCell ref="H15:H22"/>
     <mergeCell ref="E15:E22"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G15:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" display="https://www.learnquest.com/course-detail-v3.aspx?cnum=B6008GIN"/>

--- a/IBM - Cognos Analytics 11 Training Topics_Trainers_Final_Comments_on_Number_Of_Hours.xlsx
+++ b/IBM - Cognos Analytics 11 Training Topics_Trainers_Final_Comments_on_Number_Of_Hours.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t xml:space="preserve">• Migration approach, recommendations &amp; best practices
 • Phases and steps to be followed
@@ -510,6 +510,24 @@
       </rPr>
       <t>B6063GIN</t>
     </r>
+  </si>
+  <si>
+    <t>1- Framework Manager Project with RM and DMR model</t>
+  </si>
+  <si>
+    <t>2- Drill through (Package)</t>
+  </si>
+  <si>
+    <t>Q- Difference between level names and parent level name</t>
+  </si>
+  <si>
+    <t>3- Dashboard and story</t>
+  </si>
+  <si>
+    <t>1- &lt;=12 years experience, bring 2 questions</t>
+  </si>
+  <si>
+    <t>2- &gt;12 years experience, bring real time scenario</t>
   </si>
 </sst>
 </file>
@@ -607,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -733,9 +757,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -816,29 +837,58 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1169,8 +1219,8 @@
     <col min="4" max="4" width="54.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="65.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
@@ -1181,28 +1231,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1228,149 +1278,149 @@
       <c r="G7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9" s="51" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="50">
         <v>2</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="50">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>2</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="50">
         <v>2</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="29">
+      <c r="G11" s="56"/>
+      <c r="H11" s="50">
         <v>2</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="50">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>13</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>10</v>
       </c>
     </row>
@@ -1378,53 +1428,53 @@
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <v>4</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="35" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <v>2</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="29">
         <v>1.5</v>
       </c>
     </row>
@@ -1432,221 +1482,257 @@
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="39">
         <v>13</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="39">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+    <row r="16" spans="1:9" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
         <v>8</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="42">
         <v>9</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="41"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>10</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="25" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>11</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="1:9" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="G21" s="41"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>12</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>13</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>4</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f>SUM(H8:H23)</f>
         <v>44</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="37">
         <f>SUM(I8:I23)</f>
         <v>35</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G15:G22"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="I15:I22"/>
     <mergeCell ref="H15:H22"/>
     <mergeCell ref="E15:E22"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G15:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" display="https://www.learnquest.com/course-detail-v3.aspx?cnum=B6008GIN"/>

--- a/IBM - Cognos Analytics 11 Training Topics_Trainers_Final_Comments_on_Number_Of_Hours.xlsx
+++ b/IBM - Cognos Analytics 11 Training Topics_Trainers_Final_Comments_on_Number_Of_Hours.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t xml:space="preserve">• Migration approach, recommendations &amp; best practices
 • Phases and steps to be followed
@@ -512,22 +512,43 @@
     </r>
   </si>
   <si>
-    <t>1- Framework Manager Project with RM and DMR model</t>
-  </si>
-  <si>
-    <t>2- Drill through (Package)</t>
-  </si>
-  <si>
     <t>Q- Difference between level names and parent level name</t>
   </si>
   <si>
-    <t>3- Dashboard and story</t>
-  </si>
-  <si>
     <t>1- &lt;=12 years experience, bring 2 questions</t>
   </si>
   <si>
     <t>2- &gt;12 years experience, bring real time scenario</t>
+  </si>
+  <si>
+    <t>1- Dashboard and story</t>
+  </si>
+  <si>
+    <t>Q- The OLAP function 'sum' contains a clause (AT or PREFILTER) that is not supported by the database. This operation requires local processing of the data.</t>
+  </si>
+  <si>
+    <t>2. Create a report view</t>
+  </si>
+  <si>
+    <t>3. Create a subscription</t>
+  </si>
+  <si>
+    <t>4. Create an Active Report</t>
+  </si>
+  <si>
+    <t>5. Import and report on personal data</t>
+  </si>
+  <si>
+    <t>6. Use visualizations</t>
+  </si>
+  <si>
+    <t>7- Prompt</t>
+  </si>
+  <si>
+    <t>- Conditional Formating</t>
+  </si>
+  <si>
+    <t>- Sort</t>
   </si>
 </sst>
 </file>
@@ -779,9 +800,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -789,9 +807,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -822,12 +837,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -835,24 +844,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -889,6 +880,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1219,8 +1240,8 @@
     <col min="4" max="4" width="54.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="65.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
@@ -1231,28 +1252,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1278,39 +1299,39 @@
       <c r="G7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="51" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+    <row r="8" spans="1:9" s="41" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="40">
         <v>2</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="40">
         <v>1.5</v>
       </c>
     </row>
@@ -1327,71 +1348,71 @@
       <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <v>2</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="48">
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="40">
         <v>2</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="50">
+      <c r="G11" s="50"/>
+      <c r="H11" s="40">
         <v>2</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="40">
         <v>1.5</v>
       </c>
     </row>
@@ -1399,55 +1420,55 @@
       <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="40">
         <v>13</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="32" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="40">
         <v>4</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="40">
         <v>2.5</v>
       </c>
     </row>
@@ -1458,23 +1479,23 @@
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="42"/>
+      <c r="G14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="40">
         <v>2</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="40">
         <v>1.5</v>
       </c>
     </row>
@@ -1491,24 +1512,24 @@
       <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="53">
         <v>13</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="53">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="49">
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1520,16 +1541,16 @@
       <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="17"/>
       <c r="C17" s="10" t="s">
         <v>18</v>
@@ -1537,16 +1558,16 @@
       <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="A18" s="48">
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1558,14 +1579,14 @@
       <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="9"/>
       <c r="C19" s="14" t="s">
         <v>13</v>
@@ -1573,13 +1594,13 @@
       <c r="D19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="51"/>
+      <c r="F19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1594,13 +1615,13 @@
       <c r="D20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="51"/>
+      <c r="F20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1615,13 +1636,13 @@
       <c r="D21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="51"/>
+      <c r="F21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1636,13 +1657,13 @@
       <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="24" t="s">
+      <c r="E22" s="51"/>
+      <c r="F22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1657,82 +1678,158 @@
       <c r="D23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="32" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="26">
         <v>4</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="32">
         <f>SUM(H8:H23)</f>
         <v>44</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="33">
         <f>SUM(I8:I23)</f>
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+    </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="45"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I15:I22"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I15:I22"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="E15:E22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" display="https://www.learnquest.com/course-detail-v3.aspx?cnum=B6008GIN"/>
